--- a/Projects/GMIUS/Data/Mexican GMI KPI template v0.3.xlsx
+++ b/Projects/GMIUS/Data/Mexican GMI KPI template v0.3.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="91">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">count_attribute</t>
   </si>
   <si>
-    <t xml:space="preserve">count</t>
+    <t xml:space="preserve">count of</t>
   </si>
   <si>
     <t xml:space="preserve">SALSA/PICANTE,DIPS</t>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t xml:space="preserve">1, 2, 3, 4, 5, 6, 7, 8+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf count </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;5, 5, 6, 7, 8, &gt;=9</t>
@@ -388,12 +385,8 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,7 +414,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -434,19 +427,19 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.9185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.0148148148148"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.9962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.3703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7777777777778"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.6592592592593"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,7 +466,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -490,7 +483,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -507,7 +500,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -524,7 +517,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -541,7 +534,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -558,7 +551,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -575,7 +568,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -592,7 +585,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -609,7 +602,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -626,7 +619,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -643,7 +636,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -660,7 +653,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -677,7 +670,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -694,7 +687,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -711,7 +704,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -728,7 +721,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -768,11 +761,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.9185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6592592592593"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5444444444444"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.3703703703704"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.937037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,7 +783,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -804,7 +797,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -841,11 +834,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.57777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.9962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,7 +856,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -877,7 +870,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -891,7 +884,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -928,11 +921,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.2592592592593"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.93703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8296296296296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4814814814815"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.13333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -996,19 +989,19 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.3703703703704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.42592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.34814814814815"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3074074074074"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.27037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.6259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.54444444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8962962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.56666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,8 +1027,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1051,8 +1044,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -1068,8 +1061,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -1085,8 +1078,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -1102,8 +1095,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -1119,8 +1112,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
@@ -1142,8 +1135,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -1183,9 +1176,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.7259259259259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,11 +1240,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.4925925925926"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="12.0518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.2555555555556"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5481481481482"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2703703703704"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,197 +1300,197 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="159.240740740741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="6.27037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="3" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.5222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="167.47037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.56666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1506,7 +1499,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>68</v>
@@ -1516,11 +1509,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>68</v>
@@ -1533,7 +1526,7 @@
       <c r="A16" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1547,8 +1540,8 @@
       <c r="A17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>91</v>
+      <c r="B17" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>68</v>

--- a/Projects/GMIUS/Data/Mexican GMI KPI template v0.3.xlsx
+++ b/Projects/GMIUS/Data/Mexican GMI KPI template v0.3.xlsx
@@ -287,7 +287,7 @@
     <t xml:space="preserve">&lt;5, 5, 6, 7, 8, &gt;=9</t>
   </si>
   <si>
-    <t xml:space="preserve">Taco, Enchilada Sauce and Cooking Sauce together, Taco and enchilada sauce together, not cooking sauce, Taco and cooking sauce together, not enchilada sauce, Enchilada and Cookie sauce together, not taco sauce, None shelved together</t>
+    <t xml:space="preserve">Taco, Enchilada Sauce and Cooking Sauce together; Taco &amp; Enchilada Sauce together, not Cooking Sauce; Taco &amp; Cooking Sauce together, not Enchilada Sauce; Enchilada &amp; Cooking Sauce together, not Taco Sauce; None shelved together</t>
   </si>
   <si>
     <t xml:space="preserve">Blocked, Not Blocked</t>
@@ -829,7 +829,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -1299,8 +1299,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -1488,7 +1488,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>

--- a/Projects/GMIUS/Data/Mexican GMI KPI template v0.3.xlsx
+++ b/Projects/GMIUS/Data/Mexican GMI KPI template v0.3.xlsx
@@ -170,6 +170,9 @@
     <t xml:space="preserve">multi-block</t>
   </si>
   <si>
+    <t xml:space="preserve">tmb</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHILES/PEPPER</t>
   </si>
   <si>
@@ -249,9 +252,6 @@
   </si>
   <si>
     <t xml:space="preserve">Refried Beans, Taco Sauce, Enchilada Sauce, Cooking Sauce, Shells, Tortillas, Salsa, Sides, Seasoning, Chilies/Peppers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tmb</t>
   </si>
   <si>
     <t xml:space="preserve">Top, Top-Middle, Middle, Middle-Bottom, Bottom, Top-Bottom, Top-Middle-Bottom</t>
@@ -829,7 +829,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -916,7 +916,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -953,7 +953,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,10 +964,10 @@
         <v>35</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -989,7 +989,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -1015,13 +1015,13 @@
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>34</v>
@@ -1041,7 +1041,7 @@
         <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,7 +1058,7 @@
         <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,13 +1069,13 @@
         <v>35</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,7 +1092,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,13 +1103,13 @@
         <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,19 +1120,19 @@
         <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,7 +1149,7 @@
         <v>35</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1192,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>34</v>
@@ -1209,10 +1209,10 @@
         <v>43</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1258,7 +1258,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>34</v>
@@ -1272,13 +1272,13 @@
         <v>35</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1299,8 +1299,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
@@ -1314,27 +1314,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -1342,13 +1342,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1359,10 +1359,10 @@
         <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -1370,13 +1370,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1384,13 +1384,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
@@ -1412,13 +1412,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1432,7 +1432,7 @@
         <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1446,7 +1446,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -1454,13 +1454,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -1468,13 +1468,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -1502,7 +1502,7 @@
         <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -1516,7 +1516,7 @@
         <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -1527,10 +1527,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -1544,7 +1544,7 @@
         <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
